--- a/linked-data-type-dropdown-demo.xlsx
+++ b/linked-data-type-dropdown-demo.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F2CFCA-DEFF-441E-9474-3EB578FE8C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8992CC1-7BB6-4CF9-9F06-465B3A016E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{A0972B51-DF99-41E6-A570-8A919366ECBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="mlblinkeddatatypessetup" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="dropdowns" sheetId="4" r:id="rId1"/>
+    <sheet name="mlblinkeddatatypessetup" sheetId="2" r:id="rId2"/>
+    <sheet name="image-helper" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">mlblinkeddatatypessetup!$A$3:$B$33</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">mlblinkeddatatypessetup!$A$3:$B$33</definedName>
     <definedName name="mlb_teams">Table_ExternalData_1[mlb-team-info'[Team']]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -88,28 +89,28 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="20"/>
+          <xlrd:rvb i="21"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="25"/>
+          <xlrd:rvb i="26"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="30"/>
+          <xlrd:rvb i="31"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="34"/>
+          <xlrd:rvb i="36"/>
         </ext>
       </extLst>
     </bk>
@@ -528,15 +529,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="distributed"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,6 +547,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>422918</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF93D78-A02C-0AF2-CA0A-61DBBED6BC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'image-helper'!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3280834" y="455085"/>
+          <a:ext cx="1454793" cy="1217082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,16 +773,16 @@
 <webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <webImageSrd>
     <address r:id="rId1"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId2"/>
+    <blip r:id="rId2"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId3"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId4"/>
-    <blip r:id="rId5"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId5"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId6"/>
@@ -852,8 +901,8 @@
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="149">
   <rv s="0">
     <v>268435968</v>
-    <v>Arizona Diamondbacks</v>
-    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	ARI</v>
+    <v>Cincinnati Reds</v>
+    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CIN</v>
     <v>en-US</v>
     <v>WorkData</v>
   </rv>
@@ -867,11 +916,11 @@
     <v>2</v>
   </rv>
   <rv s="2">
-    <fb>48519</fb>
-    <v>3</v>
-  </rv>
-  <rv s="2">
-    <fb>1998</fb>
+    <fb>42319</fb>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <fb>1881</fb>
     <v>3</v>
   </rv>
   <rv s="3">
@@ -881,13 +930,65 @@
     <v>0</v>
   </rv>
   <rv s="2">
-    <fb>1</fb>
+    <fb>5</fb>
     <v>3</v>
   </rv>
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880324078</v>
+    <v>45341.675207638888</v>
+    <v>en-US</v>
+    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
+    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CIN</v>
+    <v>268435968</v>
+    <v>1</v>
+    <v>2</v>
+    <v>3</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Cincinnati Reds</v>
+    <v>1</v>
+    <v>WorkData</v>
+    <v>2</v>
+    <v>4</v>
+    <v>Cincinnati</v>
+    <v>5</v>
+    <v>6</v>
+    <v>Great American Ball Park</v>
+    <v>Ohio</v>
+    <v>Cincinnati Reds</v>
+    <v>CIN</v>
+    <v>7</v>
+  </rv>
+  <rv s="0">
+    <v>268435968</v>
+    <v>Arizona Diamondbacks</v>
+    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	ARI</v>
+    <v>en-US</v>
+    <v>WorkData</v>
+  </rv>
+  <rv s="2">
+    <fb>48519</fb>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <fb>1998</fb>
+    <v>3</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+    <v>2</v>
+    <v>7</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <fb>1</fb>
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>#VALUE!</v>
+    <v>Power BI</v>
+    <v>45341.675207523149</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	ARI</v>
@@ -901,15 +1002,15 @@
     <v>1</v>
     <v>WorkData</v>
     <v>2</v>
-    <v>4</v>
+    <v>10</v>
     <v>Phoenix</v>
-    <v>5</v>
-    <v>6</v>
+    <v>11</v>
+    <v>12</v>
     <v>Chase Field</v>
     <v>Arizona</v>
     <v>Arizona Diamondbacks</v>
     <v>ARI</v>
-    <v>7</v>
+    <v>13</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -927,7 +1028,7 @@
     <v>3</v>
   </rv>
   <rv s="3">
-    <v>1</v>
+    <v>2</v>
     <v>2</v>
     <v>7</v>
     <v>0</v>
@@ -939,7 +1040,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880324078</v>
+    <v>45341.675207523149</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	ATL</v>
@@ -953,15 +1054,15 @@
     <v>1</v>
     <v>WorkData</v>
     <v>2</v>
-    <v>10</v>
+    <v>16</v>
     <v>Atlanta</v>
-    <v>11</v>
-    <v>12</v>
+    <v>17</v>
+    <v>18</v>
     <v>Truist Park</v>
     <v>Georgia</v>
     <v>Atlanta Braves</v>
     <v>ATL</v>
-    <v>13</v>
+    <v>19</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -979,7 +1080,7 @@
     <v>3</v>
   </rv>
   <rv s="3">
-    <v>2</v>
+    <v>3</v>
     <v>2</v>
     <v>7</v>
     <v>0</v>
@@ -987,7 +1088,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880324078</v>
+    <v>45341.675207523149</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	BAL</v>
@@ -1001,15 +1102,15 @@
     <v>1</v>
     <v>WorkData</v>
     <v>2</v>
-    <v>16</v>
+    <v>22</v>
     <v>Baltimore</v>
-    <v>17</v>
-    <v>18</v>
+    <v>23</v>
+    <v>24</v>
     <v>Oriole Park at Camden Yards</v>
     <v>Maryland</v>
     <v>Baltimore Orioles</v>
     <v>BAL</v>
-    <v>13</v>
+    <v>19</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -1023,7 +1124,7 @@
     <v>3</v>
   </rv>
   <rv s="3">
-    <v>3</v>
+    <v>4</v>
     <v>2</v>
     <v>7</v>
     <v>0</v>
@@ -1035,7 +1136,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880324078</v>
+    <v>45341.675207523149</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	BOS</v>
@@ -1049,15 +1150,15 @@
     <v>1</v>
     <v>WorkData</v>
     <v>2</v>
-    <v>21</v>
+    <v>27</v>
     <v>Boston</v>
-    <v>17</v>
-    <v>22</v>
+    <v>23</v>
+    <v>28</v>
     <v>Fenway Park</v>
     <v>Massachusetts</v>
     <v>Boston Red Sox</v>
     <v>BOS</v>
-    <v>23</v>
+    <v>29</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -1075,7 +1176,7 @@
     <v>3</v>
   </rv>
   <rv s="3">
-    <v>4</v>
+    <v>5</v>
     <v>2</v>
     <v>7</v>
     <v>0</v>
@@ -1083,7 +1184,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880324078</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CHA</v>
@@ -1097,15 +1198,15 @@
     <v>1</v>
     <v>WorkData</v>
     <v>2</v>
-    <v>26</v>
+    <v>32</v>
     <v>Chicago</v>
-    <v>27</v>
-    <v>28</v>
+    <v>33</v>
+    <v>34</v>
     <v>Wrigley Field</v>
     <v>Illinois</v>
     <v>Chicago Cubs</v>
     <v>CHA</v>
-    <v>13</v>
+    <v>19</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -1119,7 +1220,7 @@
     <v>3</v>
   </rv>
   <rv s="3">
-    <v>5</v>
+    <v>6</v>
     <v>2</v>
     <v>7</v>
     <v>0</v>
@@ -1127,7 +1228,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CHN</v>
@@ -1141,93 +1242,41 @@
     <v>1</v>
     <v>WorkData</v>
     <v>2</v>
-    <v>31</v>
+    <v>37</v>
     <v>Chicago</v>
-    <v>17</v>
-    <v>32</v>
+    <v>23</v>
+    <v>38</v>
     <v>Guaranteed Rate Field</v>
     <v>Illinois</v>
     <v>Chicago White Sox</v>
     <v>CHN</v>
-    <v>13</v>
+    <v>19</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
-    <v>Cincinnati Reds</v>
-    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CIN</v>
-    <v>en-US</v>
-    <v>WorkData</v>
-  </rv>
-  <rv s="2">
-    <fb>42319</fb>
-    <v>3</v>
-  </rv>
-  <rv s="2">
-    <fb>1881</fb>
+    <v>Cleveland Guardians</v>
+    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CLE</v>
+    <v>en-US</v>
+    <v>WorkData</v>
+  </rv>
+  <rv s="2">
+    <fb>34788</fb>
     <v>3</v>
   </rv>
   <rv s="3">
-    <v>6</v>
-    <v>2</v>
-    <v>7</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <fb>5</fb>
+    <v>7</v>
+    <v>2</v>
+    <v>7</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <fb>2</fb>
     <v>3</v>
   </rv>
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
-    <v>en-US</v>
-    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
-    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CIN</v>
-    <v>268435968</v>
-    <v>1</v>
-    <v>2</v>
-    <v>3</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Cincinnati Reds</v>
-    <v>1</v>
-    <v>WorkData</v>
-    <v>2</v>
-    <v>35</v>
-    <v>Cincinnati</v>
-    <v>36</v>
-    <v>37</v>
-    <v>Great American Ball Park</v>
-    <v>Ohio</v>
-    <v>Cincinnati Reds</v>
-    <v>CIN</v>
-    <v>38</v>
-  </rv>
-  <rv s="0">
-    <v>268435968</v>
-    <v>Cleveland Guardians</v>
-    <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CLE</v>
-    <v>en-US</v>
-    <v>WorkData</v>
-  </rv>
-  <rv s="2">
-    <fb>34788</fb>
-    <v>3</v>
-  </rv>
-  <rv s="3">
-    <v>7</v>
-    <v>2</v>
-    <v>7</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <fb>2</fb>
-    <v>3</v>
-  </rv>
-  <rv s="4">
-    <v>#VALUE!</v>
-    <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.738694444444</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	CLE</v>
@@ -1243,7 +1292,7 @@
     <v>2</v>
     <v>41</v>
     <v>Cleveland</v>
-    <v>17</v>
+    <v>23</v>
     <v>42</v>
     <v>Progressive Field</v>
     <v>Ohio</v>
@@ -1279,7 +1328,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	COL</v>
@@ -1331,7 +1380,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	DET</v>
@@ -1379,7 +1428,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	HOU</v>
@@ -1401,7 +1450,7 @@
     <v>Texas</v>
     <v>Houston Astros</v>
     <v>HOU</v>
-    <v>7</v>
+    <v>13</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -1427,7 +1476,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	KCA</v>
@@ -1475,7 +1524,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	LAA</v>
@@ -1497,7 +1546,7 @@
     <v>California</v>
     <v>Los Angeles Angels</v>
     <v>LAA</v>
-    <v>7</v>
+    <v>13</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -1527,7 +1576,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	LAN</v>
@@ -1571,7 +1620,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	MIA</v>
@@ -1615,7 +1664,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880439816</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	MIL</v>
@@ -1659,7 +1708,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	MIN</v>
@@ -1675,13 +1724,13 @@
     <v>2</v>
     <v>87</v>
     <v>Minneapolis</v>
-    <v>17</v>
+    <v>23</v>
     <v>88</v>
     <v>Target Field</v>
     <v>Minnesota</v>
     <v>Minnesota Twins</v>
     <v>MIN</v>
-    <v>13</v>
+    <v>19</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -1703,7 +1752,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	NYA</v>
@@ -1751,7 +1800,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207638888</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	NYN</v>
@@ -1767,7 +1816,7 @@
     <v>2</v>
     <v>95</v>
     <v>New York City</v>
-    <v>17</v>
+    <v>23</v>
     <v>96</v>
     <v>Yankee Stadium</v>
     <v>New York</v>
@@ -1795,7 +1844,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	OAK</v>
@@ -1811,13 +1860,13 @@
     <v>2</v>
     <v>100</v>
     <v>Oakland</v>
-    <v>17</v>
+    <v>23</v>
     <v>101</v>
     <v>RingCentral Coliseum</v>
     <v>California</v>
     <v>Oakland Athletics</v>
     <v>OAK</v>
-    <v>23</v>
+    <v>29</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -1839,7 +1888,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	PHI</v>
@@ -1887,7 +1936,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	PIT</v>
@@ -1909,7 +1958,7 @@
     <v>Pennsylvania</v>
     <v>Pittsburgh Pirates</v>
     <v>PIT</v>
-    <v>38</v>
+    <v>7</v>
   </rv>
   <rv s="0">
     <v>268435968</v>
@@ -1931,7 +1980,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	SEA</v>
@@ -1979,7 +2028,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	SDN</v>
@@ -2027,7 +2076,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	SFN</v>
@@ -2079,7 +2128,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	SLN</v>
@@ -2123,7 +2172,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	TBA</v>
@@ -2139,7 +2188,7 @@
     <v>2</v>
     <v>133</v>
     <v>St. Petersburg</v>
-    <v>5</v>
+    <v>11</v>
     <v>134</v>
     <v>Tropicana Field</v>
     <v>Florida</v>
@@ -2167,7 +2216,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	TEX</v>
@@ -2211,7 +2260,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880555555</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	TOR</v>
@@ -2255,7 +2304,7 @@
   <rv s="4">
     <v>#VALUE!</v>
     <v>Power BI</v>
-    <v>45341.659880671294</v>
+    <v>45341.675207754626</v>
     <v>en-US</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info</v>
     <v>c5bc826b-040c-4ca0-ae61-8f3d31ed98f9%09mlb-team-info	Team ID	WAS</v>
@@ -2277,10 +2326,10 @@
     <v>D.C.</v>
     <v>Washington Nationals</v>
     <v>WAS</v>
-    <v>7</v>
+    <v>13</v>
   </rv>
   <rv s="3">
-    <v>3</v>
+    <v>0</v>
     <v>2</v>
     <v>3</v>
     <v>0</v>
@@ -2770,12 +2819,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB87D899-4F74-40E2-B99A-944F108D8661}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="1" max="1" width="2.8125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.85">
+      <c r="B2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.85">
+      <c r="B3" t="str">
+        <f>_xlfn.CONCAT("Founded ",_FV( B2,"Founded"))</f>
+        <v>Founded 1881</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.85">
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT("World Series titles: ",_FV( B2,"World Series Titles",TRUE))</f>
+        <v>World Series titles: 5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{58D29CCD-5514-491A-B150-C2E04BCCCF14}">
+      <formula1>mlb_teams</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD70783-E629-4218-9E6C-39119B416112}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
@@ -2800,7 +2889,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="e" vm="1">
+      <c r="B4" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2808,7 +2897,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="e" vm="2">
+      <c r="B5" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2816,7 +2905,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="e" vm="3">
+      <c r="B6" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2824,7 +2913,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="e" vm="4">
+      <c r="B7" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2832,7 +2921,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="e" vm="5">
+      <c r="B8" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2840,7 +2929,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="e" vm="6">
+      <c r="B9" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2848,7 +2937,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="e" vm="7">
+      <c r="B10" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3044,59 +3133,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501B044F-9BC9-4F0E-AEA5-756F47358B10}">
-  <dimension ref="B2:F9"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89AAB0B-308F-410C-B3FB-429B5254CD11}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
-  <cols>
-    <col min="2" max="2" width="14.8125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.85">
-      <c r="B2" t="e" vm="4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A1" t="e" cm="1" vm="31">
+        <f t="array" ref="A1">_FV(dropdowns!B2,"Image")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="2" t="e" cm="1" vm="31">
-        <f t="array" ref="C2">_FV(B2,"Image")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.85">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.85">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.85">
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.85">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.85">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.85">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{72F87674-6E35-4D28-99E2-9E0AC3DD280C}">
-      <formula1>mlb_teams</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>